--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dsc2-Dsg1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dsc2-Dsg1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +516,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1104326666666667</v>
+        <v>0.008366333333333333</v>
       </c>
       <c r="H2">
-        <v>0.331298</v>
+        <v>0.025099</v>
       </c>
       <c r="I2">
-        <v>0.1113774818451591</v>
+        <v>0.1196620722863995</v>
       </c>
       <c r="J2">
-        <v>0.1576233696968313</v>
+        <v>0.1693601171397918</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,10 +549,10 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.027977</v>
+        <v>0.007882</v>
       </c>
       <c r="N2">
-        <v>0.055954</v>
+        <v>0.015764</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.003089574715333333</v>
+        <v>6.594343933333333E-05</v>
       </c>
       <c r="R2">
-        <v>0.018537448292</v>
+        <v>0.000395660636</v>
       </c>
       <c r="S2">
-        <v>0.1113774818451591</v>
+        <v>0.1196620722863995</v>
       </c>
       <c r="T2">
-        <v>0.1576233696968313</v>
+        <v>0.1693601171397918</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +578,31 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.008366333333333333</v>
+        <v>0.06155</v>
       </c>
       <c r="H3">
-        <v>0.025099</v>
+        <v>0.1231</v>
       </c>
       <c r="I3">
-        <v>0.008437912142034208</v>
+        <v>0.8803379277136005</v>
       </c>
       <c r="J3">
-        <v>0.01194148155443368</v>
+        <v>0.8306398828602083</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,10 +611,10 @@
         <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.027977</v>
+        <v>0.007882</v>
       </c>
       <c r="N3">
-        <v>0.055954</v>
+        <v>0.015764</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,78 +623,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.0002340649076666667</v>
+        <v>0.0004851371</v>
       </c>
       <c r="R3">
-        <v>0.001404389446</v>
+        <v>0.0019405484</v>
       </c>
       <c r="S3">
-        <v>0.008437912142034208</v>
+        <v>0.8803379277136005</v>
       </c>
       <c r="T3">
-        <v>0.01194148155443368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.8727180000000001</v>
-      </c>
-      <c r="H4">
-        <v>1.745436</v>
-      </c>
-      <c r="I4">
-        <v>0.8801846060128067</v>
-      </c>
-      <c r="J4">
-        <v>0.8304351487487351</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.5</v>
-      </c>
-      <c r="M4">
-        <v>0.027977</v>
-      </c>
-      <c r="N4">
-        <v>0.055954</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0.024416031486</v>
-      </c>
-      <c r="R4">
-        <v>0.09766412594400001</v>
-      </c>
-      <c r="S4">
-        <v>0.8801846060128067</v>
-      </c>
-      <c r="T4">
-        <v>0.8304351487487351</v>
+        <v>0.8306398828602083</v>
       </c>
     </row>
   </sheetData>
